--- a/BerechnungenDatenExperiment.xlsx
+++ b/BerechnungenDatenExperiment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Entfernung vom Schanir</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t xml:space="preserve">Faktor für Simulation</t>
+  </si>
+  <si>
+    <t>m/s³</t>
+  </si>
+  <si>
+    <t>winkel/s³</t>
   </si>
 </sst>
 </file>
@@ -6593,13 +6599,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
+      <xdr:colOff>174623</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
+      <xdr:colOff>174623</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -7540,7 +7546,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7549,7 +7555,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7642,15 +7648,15 @@
         <v>269.30000000000001</v>
       </c>
       <c r="F11" s="4">
-        <f>C11*390/230</f>
+        <f t="shared" ref="F11:F21" si="1">C11*390/230</f>
         <v>456.6391304347826</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" ref="G11:G20" si="1">$F$11-F11</f>
+        <f t="shared" ref="G11:G21" si="2">$F$11-F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" ref="H11:H21" si="2">G11*4</f>
+        <f t="shared" ref="H11:H21" si="3">G11*4</f>
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -7676,19 +7682,19 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E21" si="3">11*D12</f>
+        <f t="shared" ref="E12:E21" si="4">11*D12</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F21" si="4">C12*390/230</f>
+        <f t="shared" si="1"/>
         <v>428.49130434782609</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.147826086956513</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112.59130434782605</v>
       </c>
       <c r="I12" s="4">
@@ -7714,19 +7720,19 @@
         <v>0.77000000000000002</v>
       </c>
       <c r="E13">
+        <f t="shared" si="4"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>394.57826086956521</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>62.060869565217388</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="4"/>
-        <v>394.57826086956521</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>62.060869565217388</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
         <v>248.24347826086955</v>
       </c>
       <c r="I13" s="4">
@@ -7751,19 +7757,19 @@
         <v>1.3300000000000001</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>14.630000000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>345.91304347826087</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>110.72608695652173</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>14.630000000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="4"/>
-        <v>345.91304347826087</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>110.72608695652173</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
         <v>442.90434782608691</v>
       </c>
       <c r="I14" s="4">
@@ -7788,19 +7794,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E15">
+        <f t="shared" si="4"/>
+        <v>25.299999999999997</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>279.78260869565219</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>176.85652173913041</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="3"/>
-        <v>25.299999999999997</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="4"/>
-        <v>279.78260869565219</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>176.85652173913041</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
         <v>707.42608695652166</v>
       </c>
       <c r="I15" s="4">
@@ -7825,19 +7831,19 @@
         <v>3.2000000000000002</v>
       </c>
       <c r="E16">
+        <f t="shared" si="4"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>225.52173913043478</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>231.11739130434782</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="4"/>
-        <v>225.52173913043478</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>231.11739130434782</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="2"/>
         <v>924.46956521739128</v>
       </c>
       <c r="I16" s="4">
@@ -7848,11 +7854,11 @@
         <v>22</v>
       </c>
       <c r="K16" s="4">
-        <f>-I16*9.81</f>
+        <f t="shared" ref="K16:K21" si="6">-I16*9.81</f>
         <v>240.04643478260846</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" ref="L16:L20" si="6">K16/900</f>
+        <f t="shared" ref="L16:L21" si="7">K16/900</f>
         <v>0.26671826086956496</v>
       </c>
       <c r="M16" s="4"/>
@@ -7872,19 +7878,19 @@
         <v>4.75</v>
       </c>
       <c r="E17">
+        <f t="shared" si="4"/>
+        <v>52.25</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>152.60869565217391</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>304.03043478260872</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>52.25</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="4"/>
-        <v>152.60869565217391</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>304.03043478260872</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="2"/>
         <v>1216.1217391304349</v>
       </c>
       <c r="I17" s="4">
@@ -7892,11 +7898,11 @@
         <v>-316.12173913043489</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:K21" si="7">-I17*9.81</f>
+        <f t="shared" si="6"/>
         <v>3101.1542608695663</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4457269565217405</v>
       </c>
       <c r="M17" s="4"/>
@@ -7916,19 +7922,19 @@
         <v>6.5</v>
       </c>
       <c r="E18">
+        <f t="shared" si="4"/>
+        <v>71.5</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>83.086956521739125</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>373.55217391304348</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>71.5</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="4"/>
-        <v>83.086956521739125</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>373.55217391304348</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="2"/>
         <v>1494.2086956521739</v>
       </c>
       <c r="I18" s="4">
@@ -7936,11 +7942,11 @@
         <v>-594.2086956521739</v>
       </c>
       <c r="K18" s="4">
+        <f t="shared" si="6"/>
+        <v>5829.1873043478263</v>
+      </c>
+      <c r="L18" s="4">
         <f t="shared" si="7"/>
-        <v>5829.1873043478263</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="6"/>
         <v>6.4768747826086956</v>
       </c>
       <c r="M18" s="4"/>
@@ -7960,19 +7966,19 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E19">
+        <f t="shared" si="4"/>
+        <v>91.300000000000011</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>16.956521739130434</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>439.68260869565216</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>91.300000000000011</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="4"/>
-        <v>16.956521739130434</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>439.68260869565216</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="2"/>
         <v>1758.7304347826087</v>
       </c>
       <c r="I19" s="4">
@@ -7980,11 +7986,11 @@
         <v>-858.73043478260865</v>
       </c>
       <c r="K19" s="4">
+        <f t="shared" si="6"/>
+        <v>8424.1455652173918</v>
+      </c>
+      <c r="L19" s="4">
         <f t="shared" si="7"/>
-        <v>8424.1455652173918</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="6"/>
         <v>9.3601617391304348</v>
       </c>
       <c r="M19" s="4"/>
@@ -8004,19 +8010,19 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="E20">
+        <f t="shared" si="4"/>
+        <v>103.94999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.2391304347826084</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>460.87826086956522</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="3"/>
-        <v>103.94999999999999</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="4"/>
-        <v>-4.2391304347826084</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>460.87826086956522</v>
-      </c>
-      <c r="H20" s="4">
-        <f>G20*4</f>
         <v>1843.5130434782609</v>
       </c>
       <c r="I20" s="4">
@@ -8024,11 +8030,11 @@
         <v>-943.5130434782609</v>
       </c>
       <c r="K20" s="4">
+        <f t="shared" si="6"/>
+        <v>9255.8629565217398</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="7"/>
-        <v>9255.8629565217398</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="6"/>
         <v>10.284292173913045</v>
       </c>
       <c r="M20" s="4"/>
@@ -8048,19 +8054,19 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E21">
+        <f t="shared" si="4"/>
+        <v>107.80000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>-28.826086956521738</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>485.46521739130435</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="3"/>
-        <v>107.80000000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="4"/>
-        <v>-28.826086956521738</v>
-      </c>
-      <c r="G21" s="4">
-        <f>$F$11-F21</f>
-        <v>485.46521739130435</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
         <v>1941.8608695652174</v>
       </c>
       <c r="I21" s="4">
@@ -8068,11 +8074,11 @@
         <v>-1041.8608695652174</v>
       </c>
       <c r="K21" s="4">
+        <f t="shared" si="6"/>
+        <v>10220.655130434783</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="7"/>
-        <v>10220.655130434783</v>
-      </c>
-      <c r="L21" s="4">
-        <f>K21/900</f>
         <v>11.35628347826087</v>
       </c>
       <c r="M21" s="4"/>
@@ -8143,9 +8149,20 @@
         <f>G27/G29</f>
         <v>0.021166283478260869</v>
       </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="G33">
+        <v>0.25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
@@ -8168,7 +8185,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8185,7 +8202,7 @@
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/BerechnungenDatenExperiment.xlsx
+++ b/BerechnungenDatenExperiment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Entfernung vom Schanir</t>
   </si>
@@ -93,25 +93,55 @@
     <t xml:space="preserve">Hebt ab</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftrieb in N</t>
+    <t>Auftrieb</t>
   </si>
   <si>
-    <t xml:space="preserve">Gewicht eines Drohnenarms in kg</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewicht eines Drohnenarms</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
   <si>
     <t xml:space="preserve">Beschleunigung bei maximalem Auftrieb</t>
   </si>
   <si>
-    <t xml:space="preserve">maximaler output des controllers</t>
+    <t>m/s²</t>
   </si>
   <si>
-    <t xml:space="preserve">Faktor für Simulation</t>
+    <t xml:space="preserve">output range des controllers</t>
   </si>
   <si>
-    <t>m/s³</t>
+    <t>output</t>
   </si>
   <si>
-    <t>winkel/s³</t>
+    <t xml:space="preserve">Faktor für Simulation in Metern</t>
+  </si>
+  <si>
+    <t>m/(s²*output)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länge eines Arms</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Umfang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad pro Meter Drohnenarm</t>
+  </si>
+  <si>
+    <t>°/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktor in Winkel</t>
+  </si>
+  <si>
+    <t>winkel/(s²*output)</t>
   </si>
 </sst>
 </file>
@@ -7555,7 +7585,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7854,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:K21" si="6">-I16*9.81</f>
+        <f t="shared" ref="K16:K20" si="6">-I16*9.81</f>
         <v>240.04643478260846</v>
       </c>
       <c r="L16" s="4">
@@ -8074,7 +8104,7 @@
         <v>-1041.8608695652174</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="6"/>
+        <f>-I21*9.81</f>
         <v>10220.655130434783</v>
       </c>
       <c r="L21" s="4">
@@ -8087,91 +8117,151 @@
     <row r="22">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" ht="14.25"/>
+    <row r="23" ht="14.25">
+      <c r="K23">
+        <f>K21/1000</f>
+        <v>10.220655130434784</v>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="E24" t="s">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="G24">
         <f>G21/1000*9.81</f>
         <v>4.7624137826086956</v>
       </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <f>K23/4</f>
+        <v>2.5551637826086959</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" t="s">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>24</v>
+      <c r="C25" t="s">
+        <v>25</v>
       </c>
       <c r="G25">
         <f>0.9/4</f>
         <v>0.22500000000000001</v>
       </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>25</v>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <f>G24/G25</f>
+        <v>21.166283478260869</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="14.25">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
       <c r="G27">
-        <f>G24/G25</f>
-        <v>21.166283478260869</v>
+        <v>1000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <f>G26/G27</f>
+        <v>0.021166283478260869</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="D29" t="s">
-        <v>26</v>
+      <c r="C29" t="s">
+        <v>33</v>
       </c>
       <c r="G29">
-        <v>1000</v>
+        <v>0.25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="G30" t="s">
-        <v>27</v>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <f>2*PI()*G29</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="14.25">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
       <c r="G31">
-        <f>G27/G29</f>
-        <v>0.021166283478260869</v>
+        <f>360/G30</f>
+        <v>229.18311805232929</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <f>G28*G31</f>
+        <v>4.8509548451273279</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="G33">
-        <v>0.25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="33" ht="14.25"/>
     <row r="34">
       <c r="A34" s="1"/>
     </row>
+    <row r="35" ht="14.25"/>
     <row r="36">
       <c r="A36" s="1"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="I37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="G39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
